--- a/TRDV and TRGV Pair/All Tgd Clusters/diagnosis_summary_TRDV.xlsx
+++ b/TRDV and TRGV Pair/All Tgd Clusters/diagnosis_summary_TRDV.xlsx
@@ -396,13 +396,13 @@
         </is>
       </c>
       <c r="C2">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="D2">
-        <v>484</v>
+        <v>581</v>
       </c>
       <c r="E2">
-        <v>71.69</v>
+        <v>67.13</v>
       </c>
     </row>
     <row r="3">
@@ -417,13 +417,13 @@
         </is>
       </c>
       <c r="C3">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="D3">
-        <v>484</v>
+        <v>581</v>
       </c>
       <c r="E3">
-        <v>14.05</v>
+        <v>18.76</v>
       </c>
     </row>
     <row r="4">
@@ -438,13 +438,13 @@
         </is>
       </c>
       <c r="C4">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D4">
-        <v>484</v>
+        <v>581</v>
       </c>
       <c r="E4">
-        <v>14.26</v>
+        <v>14.11</v>
       </c>
     </row>
     <row r="5">
@@ -459,13 +459,13 @@
         </is>
       </c>
       <c r="C5">
-        <v>606</v>
+        <v>1145</v>
       </c>
       <c r="D5">
-        <v>1017</v>
+        <v>1805</v>
       </c>
       <c r="E5">
-        <v>59.59</v>
+        <v>63.43</v>
       </c>
     </row>
     <row r="6">
@@ -480,13 +480,13 @@
         </is>
       </c>
       <c r="C6">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="D6">
-        <v>1017</v>
+        <v>1805</v>
       </c>
       <c r="E6">
-        <v>9.050000000000001</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -501,13 +501,13 @@
         </is>
       </c>
       <c r="C7">
-        <v>319</v>
+        <v>506</v>
       </c>
       <c r="D7">
-        <v>1017</v>
+        <v>1805</v>
       </c>
       <c r="E7">
-        <v>31.37</v>
+        <v>28.03</v>
       </c>
     </row>
     <row r="8">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C8">
-        <v>261</v>
+        <v>477</v>
       </c>
       <c r="D8">
-        <v>442</v>
+        <v>790</v>
       </c>
       <c r="E8">
-        <v>59.05</v>
+        <v>60.38</v>
       </c>
     </row>
     <row r="9">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="C9">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="D9">
-        <v>442</v>
+        <v>790</v>
       </c>
       <c r="E9">
-        <v>16.06</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="10">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C10">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="D10">
-        <v>442</v>
+        <v>790</v>
       </c>
       <c r="E10">
-        <v>24.89</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="11">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="12">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="C12">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E12">
-        <v>82</v>
+        <v>77.27</v>
       </c>
     </row>
     <row r="13">
@@ -630,10 +630,10 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E13">
-        <v>12</v>
+        <v>9.09</v>
       </c>
     </row>
   </sheetData>
